--- a/Sep19/pos_prof/Tables/income-M_%cit.xlsx
+++ b/Sep19/pos_prof/Tables/income-M_%cit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>M_ETR</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>M_POP</t>
+  </si>
+  <si>
+    <t>M_TotalTax</t>
+  </si>
+  <si>
+    <t>M_CorpTax</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -428,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -474,10 +480,16 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.2147588053950578</v>
@@ -492,33 +504,39 @@
         <v>1067562711.75</v>
       </c>
       <c r="F2">
+        <v>14106286460237.92</v>
+      </c>
+      <c r="G2">
+        <v>1155021202746.413</v>
+      </c>
+      <c r="H2">
         <v>3.330102024555517</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>2.30266145030766</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>3.707669076519401</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>3.01742627328951</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.4474378400236814</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>0.3093892793777015</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>2.237189200118393</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>1.546946396888501</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>2.296491669346442</v>
@@ -532,34 +550,40 @@
       <c r="E3">
         <v>40832282.75</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
+      <c r="F3">
+        <v>3207987015.574299</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0.3894581041516433</v>
@@ -574,33 +598,39 @@
         <v>2683451842.25</v>
       </c>
       <c r="F4">
+        <v>734615892234.8064</v>
+      </c>
+      <c r="G4">
+        <v>88889835996.30263</v>
+      </c>
+      <c r="H4">
         <v>-2.347918287685938</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>11.00454639252752</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>-1.484508386776018</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>7.48578428211691</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>-0.3154700605109874</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>1.478588473267598</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>-1.577350302554937</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>7.392942366337992</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0.04210160584805436</v>
@@ -615,33 +645,39 @@
         <v>88329342</v>
       </c>
       <c r="F5">
+        <v>558865056646.082</v>
+      </c>
+      <c r="G5">
+        <v>72600947639.16805</v>
+      </c>
+      <c r="H5">
         <v>-54.31764961505906</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>-71.69661051962089</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>-53.73028365544798</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>-65.40560872305004</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>-7.298206373172287</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>-9.633271386692707</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>-36.49103186586148</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>-48.16635693346353</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0.38480040209338</v>
@@ -653,30 +689,36 @@
         <v>19503318000000</v>
       </c>
       <c r="E6">
-        <v>2425431669.75</v>
+        <v>2427884184.75</v>
       </c>
       <c r="F6">
+        <v>4579473077980.816</v>
+      </c>
+      <c r="G6">
+        <v>674619880691.7614</v>
+      </c>
+      <c r="H6">
         <v>1.078791651731823</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>3.407620329856437</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>1.014203608749803</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>2.578729358774469</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.1449481736376803</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>0.4578533236426135</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.7247408681884012</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>2.289266618213068</v>
       </c>
     </row>
